--- a/Code/Results/Cases/Case_0_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_127/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4047518396408805</v>
+        <v>0.4320577737004783</v>
       </c>
       <c r="D2">
-        <v>0.3967601570944197</v>
+        <v>0.3523579448139174</v>
       </c>
       <c r="E2">
-        <v>0.1809647066381856</v>
+        <v>0.1821962538560413</v>
       </c>
       <c r="F2">
-        <v>6.809453963535987</v>
+        <v>5.009516939772851</v>
       </c>
       <c r="G2">
-        <v>0.0008097685501945058</v>
+        <v>0.002627872196580732</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.121988863100967</v>
+        <v>3.550942404564978</v>
       </c>
       <c r="L2">
-        <v>0.1667725785442542</v>
+        <v>0.1587147059426144</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3595029404024501</v>
+        <v>0.4246816063167387</v>
       </c>
       <c r="D3">
-        <v>0.3627712625764303</v>
+        <v>0.3440399599330135</v>
       </c>
       <c r="E3">
-        <v>0.1601112696505851</v>
+        <v>0.1787022366166298</v>
       </c>
       <c r="F3">
-        <v>6.049524719146461</v>
+        <v>4.8349258661124</v>
       </c>
       <c r="G3">
-        <v>0.0008242281849941691</v>
+        <v>0.00263590399009006</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.414317675776942</v>
+        <v>3.42554775289409</v>
       </c>
       <c r="L3">
-        <v>0.1470335200593809</v>
+        <v>0.155328413408192</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3328764612214741</v>
+        <v>0.4204215540843848</v>
       </c>
       <c r="D4">
-        <v>0.3427904872004035</v>
+        <v>0.3389924247074987</v>
       </c>
       <c r="E4">
-        <v>0.1478392535905506</v>
+        <v>0.1766738336087172</v>
       </c>
       <c r="F4">
-        <v>5.600674532612203</v>
+        <v>4.729635094922543</v>
       </c>
       <c r="G4">
-        <v>0.000833226988267155</v>
+        <v>0.00264108197214553</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.995511463589708</v>
+        <v>3.351847938086394</v>
       </c>
       <c r="L4">
-        <v>0.1354168231400337</v>
+        <v>0.153354004970268</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3222772057723375</v>
+        <v>0.4187526909531698</v>
       </c>
       <c r="D5">
-        <v>0.3348370100488722</v>
+        <v>0.3369498019774255</v>
       </c>
       <c r="E5">
-        <v>0.1429535637122079</v>
+        <v>0.1758764112900231</v>
       </c>
       <c r="F5">
-        <v>5.421557805013521</v>
+        <v>4.68719637647169</v>
       </c>
       <c r="G5">
-        <v>0.0008369307589071173</v>
+        <v>0.002643254278365769</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.828204881979673</v>
+        <v>3.322636396374605</v>
       </c>
       <c r="L5">
-        <v>0.130791629115933</v>
+        <v>0.1525755326534934</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3205313259108209</v>
+        <v>0.418479618802678</v>
       </c>
       <c r="D6">
-        <v>0.3335268231906667</v>
+        <v>0.3366114677102132</v>
       </c>
       <c r="E6">
-        <v>0.1421487650526778</v>
+        <v>0.1757457548130219</v>
       </c>
       <c r="F6">
-        <v>5.392026801225001</v>
+        <v>4.680177389013693</v>
       </c>
       <c r="G6">
-        <v>0.0008375481536361046</v>
+        <v>0.002643618754883724</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.800611011434398</v>
+        <v>3.317835291799497</v>
       </c>
       <c r="L6">
-        <v>0.1300297092754761</v>
+        <v>0.1524478384464345</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3327325470701794</v>
+        <v>0.4203987759852907</v>
       </c>
       <c r="D7">
-        <v>0.3426825015231714</v>
+        <v>0.3389648202922331</v>
       </c>
       <c r="E7">
-        <v>0.1477729194769495</v>
+        <v>0.1766629614987174</v>
       </c>
       <c r="F7">
-        <v>5.598244363532274</v>
+        <v>4.729060871679934</v>
       </c>
       <c r="G7">
-        <v>0.0008332767822286474</v>
+        <v>0.002641111016278131</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.993242222254423</v>
+        <v>3.351450662049558</v>
       </c>
       <c r="L7">
-        <v>0.1353540278055263</v>
+        <v>0.1533434007872074</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3888843688432075</v>
+        <v>0.4294583527084797</v>
       </c>
       <c r="D8">
-        <v>0.384833998535612</v>
+        <v>0.3494770588458351</v>
       </c>
       <c r="E8">
-        <v>0.1736520030262554</v>
+        <v>0.1809671007699336</v>
       </c>
       <c r="F8">
-        <v>6.543313397561178</v>
+        <v>4.948914514041093</v>
       </c>
       <c r="G8">
-        <v>0.0008147333367871205</v>
+        <v>0.002630590576045824</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.874341787087644</v>
+        <v>3.507018948685243</v>
       </c>
       <c r="L8">
-        <v>0.1598505747211263</v>
+        <v>0.1575252190310721</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.510312453748611</v>
+        <v>0.4493819527861547</v>
       </c>
       <c r="D9">
-        <v>0.4764090823880167</v>
+        <v>0.3705997057779911</v>
       </c>
       <c r="E9">
-        <v>0.229625412948387</v>
+        <v>0.1903469065133336</v>
       </c>
       <c r="F9">
-        <v>8.573505623474773</v>
+        <v>5.395755375717499</v>
       </c>
       <c r="G9">
-        <v>0.000778982916675947</v>
+        <v>0.002611902940949484</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.758786198839005</v>
+        <v>3.838532506724448</v>
       </c>
       <c r="L9">
-        <v>0.2128454991128024</v>
+        <v>0.1665686232231423</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6101350898962039</v>
+        <v>0.4653711467032622</v>
       </c>
       <c r="D10">
-        <v>0.5523639985472641</v>
+        <v>0.3864771988317273</v>
       </c>
       <c r="E10">
-        <v>0.2756775291892239</v>
+        <v>0.197828229329069</v>
       </c>
       <c r="F10">
-        <v>10.23538611179799</v>
+        <v>5.734444667405768</v>
       </c>
       <c r="G10">
-        <v>0.0007524975601560905</v>
+        <v>0.00259934016109516</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.294578376314064</v>
+        <v>4.09869983276792</v>
       </c>
       <c r="L10">
-        <v>0.2564826298505096</v>
+        <v>0.1737436726828747</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6589712767350306</v>
+        <v>0.4729466343567594</v>
       </c>
       <c r="D11">
-        <v>0.5897810752986459</v>
+        <v>0.3937889490235875</v>
       </c>
       <c r="E11">
-        <v>0.2982253532891406</v>
+        <v>0.2013637102903161</v>
       </c>
       <c r="F11">
-        <v>11.0471892161346</v>
+        <v>5.8909626584325</v>
       </c>
       <c r="G11">
-        <v>0.0007402226153129384</v>
+        <v>0.002593874674401277</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.043059652338343</v>
+        <v>4.220773146195711</v>
       </c>
       <c r="L11">
-        <v>0.2778642586049074</v>
+        <v>0.177126915281832</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6780827872131283</v>
+        <v>0.4758593384651135</v>
       </c>
       <c r="D12">
-        <v>0.6044721889390701</v>
+        <v>0.396571382986906</v>
       </c>
       <c r="E12">
-        <v>0.3070528017699914</v>
+        <v>0.2027218258973917</v>
       </c>
       <c r="F12">
-        <v>11.36472821448882</v>
+        <v>5.950598255738896</v>
       </c>
       <c r="G12">
-        <v>0.0007355218462712459</v>
+        <v>0.002591840604884916</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.335570851585601</v>
+        <v>4.267543121386154</v>
       </c>
       <c r="L12">
-        <v>0.2862384100223068</v>
+        <v>0.1784255203501601</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6739368995300197</v>
+        <v>0.4752300672189733</v>
       </c>
       <c r="D13">
-        <v>0.601282882955303</v>
+        <v>0.395971516288796</v>
       </c>
       <c r="E13">
-        <v>0.305137671632437</v>
+        <v>0.2024284679533963</v>
       </c>
       <c r="F13">
-        <v>11.29585028141605</v>
+        <v>5.937738178250697</v>
       </c>
       <c r="G13">
-        <v>0.0007365369544020934</v>
+        <v>0.002592277099571027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.272133267014453</v>
+        <v>4.257446065126771</v>
       </c>
       <c r="L13">
-        <v>0.2844214614917178</v>
+        <v>0.1781450619142504</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6605303552846067</v>
+        <v>0.4731853782311362</v>
       </c>
       <c r="D14">
-        <v>0.5909785167921484</v>
+        <v>0.394017583485379</v>
       </c>
       <c r="E14">
-        <v>0.2989454004535759</v>
+        <v>0.2014750546307056</v>
       </c>
       <c r="F14">
-        <v>11.07309625318527</v>
+        <v>5.895861506971642</v>
       </c>
       <c r="G14">
-        <v>0.0007398370667196079</v>
+        <v>0.002593706618569368</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.066929910352201</v>
+        <v>4.224610000073937</v>
       </c>
       <c r="L14">
-        <v>0.2785472598245491</v>
+        <v>0.1772334009810237</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6524033024914786</v>
+        <v>0.4719386999514938</v>
       </c>
       <c r="D15">
-        <v>0.5847385783292509</v>
+        <v>0.3928225436386583</v>
       </c>
       <c r="E15">
-        <v>0.2951921407010261</v>
+        <v>0.2008935845792905</v>
       </c>
       <c r="F15">
-        <v>10.93804404060006</v>
+        <v>5.870258867517748</v>
       </c>
       <c r="G15">
-        <v>0.0007418509567082031</v>
+        <v>0.002594586867320042</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.94248496754534</v>
+        <v>4.204567986931238</v>
       </c>
       <c r="L15">
-        <v>0.2749872390757417</v>
+        <v>0.1766772629603821</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6070224595302989</v>
+        <v>0.4648821983905975</v>
       </c>
       <c r="D16">
-        <v>0.5499850981001941</v>
+        <v>0.3860012207119894</v>
       </c>
       <c r="E16">
-        <v>0.2742408457476984</v>
+        <v>0.1975998625142452</v>
       </c>
       <c r="F16">
-        <v>10.18362295172892</v>
+        <v>5.724266254472099</v>
       </c>
       <c r="G16">
-        <v>0.0007532936122621182</v>
+        <v>0.002599702338602876</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.246817956117866</v>
+        <v>4.090797647649595</v>
       </c>
       <c r="L16">
-        <v>0.2551206419250747</v>
+        <v>0.1735249948010136</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5801396652289554</v>
+        <v>0.4606310247598628</v>
       </c>
       <c r="D17">
-        <v>0.5294681712651368</v>
+        <v>0.3818399446480782</v>
       </c>
       <c r="E17">
-        <v>0.2618346812291605</v>
+        <v>0.1956133361986971</v>
       </c>
       <c r="F17">
-        <v>9.736431443985623</v>
+        <v>5.635340880198385</v>
       </c>
       <c r="G17">
-        <v>0.0007602426807454862</v>
+        <v>0.002602904196448297</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.834018367826104</v>
+        <v>4.02196227613922</v>
       </c>
       <c r="L17">
-        <v>0.2433613273576611</v>
+        <v>0.1716219355906361</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5649907352810146</v>
+        <v>0.4582142426361884</v>
       </c>
       <c r="D18">
-        <v>0.5179289825126716</v>
+        <v>0.3794548149926982</v>
       </c>
       <c r="E18">
-        <v>0.2548451163882746</v>
+        <v>0.1944831628315313</v>
       </c>
       <c r="F18">
-        <v>9.484318173071472</v>
+        <v>5.584422793366798</v>
       </c>
       <c r="G18">
-        <v>0.0007642197232550441</v>
+        <v>0.002604769310060344</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.601138565691485</v>
+        <v>3.982719801239625</v>
       </c>
       <c r="L18">
-        <v>0.2367375900745827</v>
+        <v>0.1705385551340868</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5599120823432031</v>
+        <v>0.4574008176782911</v>
       </c>
       <c r="D19">
-        <v>0.5140640507297576</v>
+        <v>0.3786486559049536</v>
       </c>
       <c r="E19">
-        <v>0.2525021126398812</v>
+        <v>0.1941026304826394</v>
       </c>
       <c r="F19">
-        <v>9.399777466260929</v>
+        <v>5.567221793232562</v>
       </c>
       <c r="G19">
-        <v>0.0007655633913780932</v>
+        <v>0.002605404847797444</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.523021101459847</v>
+        <v>3.969492806981464</v>
       </c>
       <c r="L19">
-        <v>0.2345174331353661</v>
+        <v>0.1701736574805039</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5829681506132545</v>
+        <v>0.4610806277804045</v>
       </c>
       <c r="D20">
-        <v>0.5316244537091848</v>
+        <v>0.3822820518454364</v>
       </c>
       <c r="E20">
-        <v>0.2631398355308505</v>
+        <v>0.1958235173533538</v>
       </c>
       <c r="F20">
-        <v>9.783494498825661</v>
+        <v>5.644783293041058</v>
       </c>
       <c r="G20">
-        <v>0.0007595051255508612</v>
+        <v>0.002602560924158503</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.877478307871741</v>
+        <v>4.029253656072228</v>
       </c>
       <c r="L20">
-        <v>0.2445982802840518</v>
+        <v>0.1718233573239871</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6644502253563189</v>
+        <v>0.4737847529569876</v>
       </c>
       <c r="D21">
-        <v>0.5939899570599891</v>
+        <v>0.3945911242017246</v>
       </c>
       <c r="E21">
-        <v>0.3007558200677849</v>
+        <v>0.2017545688730635</v>
       </c>
       <c r="F21">
-        <v>11.13823000426481</v>
+        <v>5.908151665783691</v>
       </c>
       <c r="G21">
-        <v>0.0007388693555991569</v>
+        <v>0.002593285770534317</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.126938812150627</v>
+        <v>4.234239931663922</v>
       </c>
       <c r="L21">
-        <v>0.2802645897835845</v>
+        <v>0.1775007020823693</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.721393883456642</v>
+        <v>0.4823445807148801</v>
       </c>
       <c r="D22">
-        <v>0.637868545883066</v>
+        <v>0.4027156745735283</v>
       </c>
       <c r="E22">
-        <v>0.3270658422197741</v>
+        <v>0.2057435264956808</v>
       </c>
       <c r="F22">
-        <v>12.08409852979338</v>
+        <v>6.082415912586725</v>
       </c>
       <c r="G22">
-        <v>0.000725062889315016</v>
+        <v>0.002587431249989222</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.9977668853208</v>
+        <v>4.371382066011734</v>
       </c>
       <c r="L22">
-        <v>0.3052310025002072</v>
+        <v>0.1813129970606582</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6906129192277319</v>
+        <v>0.4777523205895875</v>
       </c>
       <c r="D23">
-        <v>0.6141191725126305</v>
+        <v>0.3983718625064512</v>
       </c>
       <c r="E23">
-        <v>0.3128415202489023</v>
+        <v>0.203604134742676</v>
       </c>
       <c r="F23">
-        <v>11.57287858904226</v>
+        <v>5.989207557218265</v>
       </c>
       <c r="G23">
-        <v>0.0007324690711221267</v>
+        <v>0.0025905370363669</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.527242993578</v>
+        <v>4.297893705178581</v>
       </c>
       <c r="L23">
-        <v>0.2917309173009954</v>
+        <v>0.179268887831924</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.581688447154022</v>
+        <v>0.4608772773472651</v>
       </c>
       <c r="D24">
-        <v>0.5306488080774443</v>
+        <v>0.3820821526828695</v>
       </c>
       <c r="E24">
-        <v>0.2625493343897247</v>
+        <v>0.1957284573878582</v>
       </c>
       <c r="F24">
-        <v>9.762201920945927</v>
+        <v>5.640513736672915</v>
       </c>
       <c r="G24">
-        <v>0.0007598386292272074</v>
+        <v>0.002602716041815079</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.857816362855033</v>
+        <v>4.025956190039437</v>
       </c>
       <c r="L24">
-        <v>0.244038631703134</v>
+        <v>0.1717322612096268</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4759149726449721</v>
+        <v>0.4437574371574158</v>
       </c>
       <c r="D25">
-        <v>0.4503874061566222</v>
+        <v>0.3648260540574171</v>
       </c>
       <c r="E25">
-        <v>0.2137657930269725</v>
+        <v>0.1877070918920154</v>
       </c>
       <c r="F25">
-        <v>7.999672352908675</v>
+        <v>5.273107579000737</v>
       </c>
       <c r="G25">
-        <v>0.0007886426366509657</v>
+        <v>0.002616752237861843</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.227179179206928</v>
+        <v>3.745969289330958</v>
       </c>
       <c r="L25">
-        <v>0.1978261510558212</v>
+        <v>0.1640301751885147</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_127/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4320577737004783</v>
+        <v>0.4047518396409089</v>
       </c>
       <c r="D2">
-        <v>0.3523579448139174</v>
+        <v>0.3967601570942065</v>
       </c>
       <c r="E2">
-        <v>0.1821962538560413</v>
+        <v>0.1809647066382993</v>
       </c>
       <c r="F2">
-        <v>5.009516939772851</v>
+        <v>6.809453963535987</v>
       </c>
       <c r="G2">
-        <v>0.002627872196580732</v>
+        <v>0.0008097685501939129</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.550942404564978</v>
+        <v>5.121988863100967</v>
       </c>
       <c r="L2">
-        <v>0.1587147059426144</v>
+        <v>0.1667725785441476</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4246816063167387</v>
+        <v>0.3595029404024785</v>
       </c>
       <c r="D3">
-        <v>0.3440399599330135</v>
+        <v>0.3627712625765724</v>
       </c>
       <c r="E3">
-        <v>0.1787022366166298</v>
+        <v>0.1601112696505567</v>
       </c>
       <c r="F3">
-        <v>4.8349258661124</v>
+        <v>6.04952471914649</v>
       </c>
       <c r="G3">
-        <v>0.00263590399009006</v>
+        <v>0.0008242281849512176</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.42554775289409</v>
+        <v>4.414317675776886</v>
       </c>
       <c r="L3">
-        <v>0.155328413408192</v>
+        <v>0.1470335200592956</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4204215540843848</v>
+        <v>0.3328764612218151</v>
       </c>
       <c r="D4">
-        <v>0.3389924247074987</v>
+        <v>0.342790487200034</v>
       </c>
       <c r="E4">
-        <v>0.1766738336087172</v>
+        <v>0.1478392535904334</v>
       </c>
       <c r="F4">
-        <v>4.729635094922543</v>
+        <v>5.600674532612203</v>
       </c>
       <c r="G4">
-        <v>0.00264108197214553</v>
+        <v>0.0008332269883508528</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.351847938086394</v>
+        <v>3.995511463589708</v>
       </c>
       <c r="L4">
-        <v>0.153354004970268</v>
+        <v>0.1354168231397423</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4187526909531698</v>
+        <v>0.3222772057726786</v>
       </c>
       <c r="D5">
-        <v>0.3369498019774255</v>
+        <v>0.3348370100492559</v>
       </c>
       <c r="E5">
-        <v>0.1758764112900231</v>
+        <v>0.1429535637121369</v>
       </c>
       <c r="F5">
-        <v>4.68719637647169</v>
+        <v>5.421557805013521</v>
       </c>
       <c r="G5">
-        <v>0.002643254278365769</v>
+        <v>0.0008369307589568186</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.322636396374605</v>
+        <v>3.82820488197973</v>
       </c>
       <c r="L5">
-        <v>0.1525755326534934</v>
+        <v>0.1307916291157341</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.418479618802678</v>
+        <v>0.3205313259110483</v>
       </c>
       <c r="D6">
-        <v>0.3366114677102132</v>
+        <v>0.3335268231903967</v>
       </c>
       <c r="E6">
-        <v>0.1757457548130219</v>
+        <v>0.142148765052692</v>
       </c>
       <c r="F6">
-        <v>4.680177389013693</v>
+        <v>5.392026801225029</v>
       </c>
       <c r="G6">
-        <v>0.002643618754883724</v>
+        <v>0.0008375481536334384</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.317835291799497</v>
+        <v>3.800611011434455</v>
       </c>
       <c r="L6">
-        <v>0.1524478384464345</v>
+        <v>0.1300297092753198</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4203987759852907</v>
+        <v>0.332732547069952</v>
       </c>
       <c r="D7">
-        <v>0.3389648202922331</v>
+        <v>0.3426825015231714</v>
       </c>
       <c r="E7">
-        <v>0.1766629614987174</v>
+        <v>0.1477729194769495</v>
       </c>
       <c r="F7">
-        <v>4.729060871679934</v>
+        <v>5.598244363532274</v>
       </c>
       <c r="G7">
-        <v>0.002641111016278131</v>
+        <v>0.0008332767821953378</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.351450662049558</v>
+        <v>3.993242222254423</v>
       </c>
       <c r="L7">
-        <v>0.1533434007872074</v>
+        <v>0.1353540278055121</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4294583527084797</v>
+        <v>0.3888843688427528</v>
       </c>
       <c r="D8">
-        <v>0.3494770588458351</v>
+        <v>0.3848339985359388</v>
       </c>
       <c r="E8">
-        <v>0.1809671007699336</v>
+        <v>0.1736520030262554</v>
       </c>
       <c r="F8">
-        <v>4.948914514041093</v>
+        <v>6.543313397561178</v>
       </c>
       <c r="G8">
-        <v>0.002630590576045824</v>
+        <v>0.0008147333368834425</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.507018948685243</v>
+        <v>4.874341787087531</v>
       </c>
       <c r="L8">
-        <v>0.1575252190310721</v>
+        <v>0.1598505747211831</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4493819527861547</v>
+        <v>0.5103124537486678</v>
       </c>
       <c r="D9">
-        <v>0.3705997057779911</v>
+        <v>0.4764090823882441</v>
       </c>
       <c r="E9">
-        <v>0.1903469065133336</v>
+        <v>0.2296254129484154</v>
       </c>
       <c r="F9">
-        <v>5.395755375717499</v>
+        <v>8.57350562347483</v>
       </c>
       <c r="G9">
-        <v>0.002611902940949484</v>
+        <v>0.0007789829167797277</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.838532506724448</v>
+        <v>6.758786198838948</v>
       </c>
       <c r="L9">
-        <v>0.1665686232231423</v>
+        <v>0.2128454991127029</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4653711467032622</v>
+        <v>0.6101350898966302</v>
       </c>
       <c r="D10">
-        <v>0.3864771988317273</v>
+        <v>0.5523639985472641</v>
       </c>
       <c r="E10">
-        <v>0.197828229329069</v>
+        <v>0.2756775291892239</v>
       </c>
       <c r="F10">
-        <v>5.734444667405768</v>
+        <v>10.23538611179799</v>
       </c>
       <c r="G10">
-        <v>0.00259934016109516</v>
+        <v>0.0007524975600483899</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.09869983276792</v>
+        <v>8.294578376313893</v>
       </c>
       <c r="L10">
-        <v>0.1737436726828747</v>
+        <v>0.2564826298505238</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4729466343567594</v>
+        <v>0.6589712767359401</v>
       </c>
       <c r="D11">
-        <v>0.3937889490235875</v>
+        <v>0.5897810752987027</v>
       </c>
       <c r="E11">
-        <v>0.2013637102903161</v>
+        <v>0.2982253532892045</v>
       </c>
       <c r="F11">
-        <v>5.8909626584325</v>
+        <v>11.04718921613448</v>
       </c>
       <c r="G11">
-        <v>0.002593874674401277</v>
+        <v>0.0007402226153201769</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.220773146195711</v>
+        <v>9.0430596523384</v>
       </c>
       <c r="L11">
-        <v>0.177126915281832</v>
+        <v>0.2778642586051205</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4758593384651135</v>
+        <v>0.678082787212702</v>
       </c>
       <c r="D12">
-        <v>0.396571382986906</v>
+        <v>0.6044721889390701</v>
       </c>
       <c r="E12">
-        <v>0.2027218258973917</v>
+        <v>0.3070528017699488</v>
       </c>
       <c r="F12">
-        <v>5.950598255738896</v>
+        <v>11.36472821448899</v>
       </c>
       <c r="G12">
-        <v>0.002591840604884916</v>
+        <v>0.00073552184626295</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.267543121386154</v>
+        <v>9.335570851585658</v>
       </c>
       <c r="L12">
-        <v>0.1784255203501601</v>
+        <v>0.2862384100222073</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4752300672189733</v>
+        <v>0.6739368995299344</v>
       </c>
       <c r="D13">
-        <v>0.395971516288796</v>
+        <v>0.6012828829551893</v>
       </c>
       <c r="E13">
-        <v>0.2024284679533963</v>
+        <v>0.3051376716324654</v>
       </c>
       <c r="F13">
-        <v>5.937738178250697</v>
+        <v>11.29585028141634</v>
       </c>
       <c r="G13">
-        <v>0.002592277099571027</v>
+        <v>0.0007365369544855166</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.257446065126771</v>
+        <v>9.27213326701451</v>
       </c>
       <c r="L13">
-        <v>0.1781450619142504</v>
+        <v>0.2844214614918457</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4731853782311362</v>
+        <v>0.6605303552842088</v>
       </c>
       <c r="D14">
-        <v>0.394017583485379</v>
+        <v>0.5909785167923189</v>
       </c>
       <c r="E14">
-        <v>0.2014750546307056</v>
+        <v>0.2989454004535759</v>
       </c>
       <c r="F14">
-        <v>5.895861506971642</v>
+        <v>11.07309625318521</v>
       </c>
       <c r="G14">
-        <v>0.002593706618569368</v>
+        <v>0.000739837066825408</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.224610000073937</v>
+        <v>9.066929910352258</v>
       </c>
       <c r="L14">
-        <v>0.1772334009810237</v>
+        <v>0.2785472598245349</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4719386999514938</v>
+        <v>0.6524033024915923</v>
       </c>
       <c r="D15">
-        <v>0.3928225436386583</v>
+        <v>0.5847385783294214</v>
       </c>
       <c r="E15">
-        <v>0.2008935845792905</v>
+        <v>0.2951921407010616</v>
       </c>
       <c r="F15">
-        <v>5.870258867517748</v>
+        <v>10.93804404060012</v>
       </c>
       <c r="G15">
-        <v>0.002594586867320042</v>
+        <v>0.0007418509565928676</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.204567986931238</v>
+        <v>8.942484967545511</v>
       </c>
       <c r="L15">
-        <v>0.1766772629603821</v>
+        <v>0.2749872390758838</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4648821983905975</v>
+        <v>0.6070224595303273</v>
       </c>
       <c r="D16">
-        <v>0.3860012207119894</v>
+        <v>0.5499850981001941</v>
       </c>
       <c r="E16">
-        <v>0.1975998625142452</v>
+        <v>0.2742408457477126</v>
       </c>
       <c r="F16">
-        <v>5.724266254472099</v>
+        <v>10.18362295172881</v>
       </c>
       <c r="G16">
-        <v>0.002599702338602876</v>
+        <v>0.0007532936123776371</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.090797647649595</v>
+        <v>8.246817956117752</v>
       </c>
       <c r="L16">
-        <v>0.1735249948010136</v>
+        <v>0.2551206419252452</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4606310247598628</v>
+        <v>0.5801396652298365</v>
       </c>
       <c r="D17">
-        <v>0.3818399446480782</v>
+        <v>0.5294681712652221</v>
       </c>
       <c r="E17">
-        <v>0.1956133361986971</v>
+        <v>0.2618346812290184</v>
       </c>
       <c r="F17">
-        <v>5.635340880198385</v>
+        <v>9.736431443985538</v>
       </c>
       <c r="G17">
-        <v>0.002602904196448297</v>
+        <v>0.0007602426809762055</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.02196227613922</v>
+        <v>7.834018367825934</v>
       </c>
       <c r="L17">
-        <v>0.1716219355906361</v>
+        <v>0.2433613273576896</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4582142426361884</v>
+        <v>0.5649907352805599</v>
       </c>
       <c r="D18">
-        <v>0.3794548149926982</v>
+        <v>0.5179289825127285</v>
       </c>
       <c r="E18">
-        <v>0.1944831628315313</v>
+        <v>0.2548451163884309</v>
       </c>
       <c r="F18">
-        <v>5.584422793366798</v>
+        <v>9.484318173071443</v>
       </c>
       <c r="G18">
-        <v>0.002604769310060344</v>
+        <v>0.0007642197233803488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.982719801239625</v>
+        <v>7.601138565691485</v>
       </c>
       <c r="L18">
-        <v>0.1705385551340868</v>
+        <v>0.2367375900744122</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4574008176782911</v>
+        <v>0.5599120823436579</v>
       </c>
       <c r="D19">
-        <v>0.3786486559049536</v>
+        <v>0.5140640507298144</v>
       </c>
       <c r="E19">
-        <v>0.1941026304826394</v>
+        <v>0.2525021126398883</v>
       </c>
       <c r="F19">
-        <v>5.567221793232562</v>
+        <v>9.399777466260957</v>
       </c>
       <c r="G19">
-        <v>0.002605404847797444</v>
+        <v>0.000765563391615293</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.969492806981464</v>
+        <v>7.523021101459847</v>
       </c>
       <c r="L19">
-        <v>0.1701736574805039</v>
+        <v>0.2345174331355082</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4610806277804045</v>
+        <v>0.5829681506137661</v>
       </c>
       <c r="D20">
-        <v>0.3822820518454364</v>
+        <v>0.5316244537096395</v>
       </c>
       <c r="E20">
-        <v>0.1958235173533538</v>
+        <v>0.2631398355307724</v>
       </c>
       <c r="F20">
-        <v>5.644783293041058</v>
+        <v>9.783494498825632</v>
       </c>
       <c r="G20">
-        <v>0.002602560924158503</v>
+        <v>0.0007595051256630292</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.029253656072228</v>
+        <v>7.877478307871911</v>
       </c>
       <c r="L20">
-        <v>0.1718233573239871</v>
+        <v>0.2445982802838529</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4737847529569876</v>
+        <v>0.6644502253565179</v>
       </c>
       <c r="D21">
-        <v>0.3945911242017246</v>
+        <v>0.5939899570601312</v>
       </c>
       <c r="E21">
-        <v>0.2017545688730635</v>
+        <v>0.3007558200677067</v>
       </c>
       <c r="F21">
-        <v>5.908151665783691</v>
+        <v>11.13823000426447</v>
       </c>
       <c r="G21">
-        <v>0.002593285770534317</v>
+        <v>0.0007388693554906799</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.234239931663922</v>
+        <v>9.126938812150684</v>
       </c>
       <c r="L21">
-        <v>0.1775007020823693</v>
+        <v>0.2802645897839682</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4823445807148801</v>
+        <v>0.7213938834556757</v>
       </c>
       <c r="D22">
-        <v>0.4027156745735283</v>
+        <v>0.6378685458824975</v>
       </c>
       <c r="E22">
-        <v>0.2057435264956808</v>
+        <v>0.3270658422198309</v>
       </c>
       <c r="F22">
-        <v>6.082415912586725</v>
+        <v>12.08409852979321</v>
       </c>
       <c r="G22">
-        <v>0.002587431249989222</v>
+        <v>0.0007250628894571832</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.371382066011734</v>
+        <v>9.997766885320857</v>
       </c>
       <c r="L22">
-        <v>0.1813129970606582</v>
+        <v>0.3052310025002356</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4777523205895875</v>
+        <v>0.6906129192271919</v>
       </c>
       <c r="D23">
-        <v>0.3983718625064512</v>
+        <v>0.6141191725126021</v>
       </c>
       <c r="E23">
-        <v>0.203604134742676</v>
+        <v>0.3128415202488242</v>
       </c>
       <c r="F23">
-        <v>5.989207557218265</v>
+        <v>11.57287858904243</v>
       </c>
       <c r="G23">
-        <v>0.0025905370363669</v>
+        <v>0.0007324690712220265</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.297893705178581</v>
+        <v>9.527242993578</v>
       </c>
       <c r="L23">
-        <v>0.179268887831924</v>
+        <v>0.2917309173007681</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4608772773472651</v>
+        <v>0.5816884471535388</v>
       </c>
       <c r="D24">
-        <v>0.3820821526828695</v>
+        <v>0.5306488080774443</v>
       </c>
       <c r="E24">
-        <v>0.1957284573878582</v>
+        <v>0.2625493343897816</v>
       </c>
       <c r="F24">
-        <v>5.640513736672915</v>
+        <v>9.762201920945984</v>
       </c>
       <c r="G24">
-        <v>0.002602716041815079</v>
+        <v>0.0007598386292279912</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.025956190039437</v>
+        <v>7.857816362855033</v>
       </c>
       <c r="L24">
-        <v>0.1717322612096268</v>
+        <v>0.2440386317032761</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4437574371574158</v>
+        <v>0.4759149726444889</v>
       </c>
       <c r="D25">
-        <v>0.3648260540574171</v>
+        <v>0.4503874061567501</v>
       </c>
       <c r="E25">
-        <v>0.1877070918920154</v>
+        <v>0.213765793026937</v>
       </c>
       <c r="F25">
-        <v>5.273107579000737</v>
+        <v>7.999672352908789</v>
       </c>
       <c r="G25">
-        <v>0.002616752237861843</v>
+        <v>0.0007886426369733556</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.745969289330958</v>
+        <v>6.227179179207042</v>
       </c>
       <c r="L25">
-        <v>0.1640301751885147</v>
+        <v>0.1978261510557644</v>
       </c>
       <c r="M25">
         <v>0</v>
